--- a/チャンピオン.xlsx
+++ b/チャンピオン.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sota\Desktop\卒論\12月24日\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sota\Desktop\卒論\1.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2B62BE-B8D0-48DC-A186-8DF357A63DDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56422CA-FE20-4E16-BA89-A4C79C6573EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{6770284B-BFD4-4E12-9747-DDF6519F12B1}"/>
+    <workbookView xWindow="-24075" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{6770284B-BFD4-4E12-9747-DDF6519F12B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="337">
   <si>
     <t>チャンピオン名</t>
     <rPh sb="6" eb="7">
@@ -1078,68 +1078,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>指定した</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>をすべて</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>固有スキル</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> QWER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>のスキルを日本語で要約してください</t>
-    </r>
-    <rPh sb="27" eb="30">
-      <t>ニホンゴ</t>
+    <t>要約</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウヤク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1148,7 +1089,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1176,17 +1117,6 @@
       <sz val="10"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
@@ -1228,7 +1158,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1547,8 +1477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946B4206-7521-41C7-9DAB-369DA804F265}">
   <dimension ref="A1:M171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2698,7 +2628,7 @@
         <v>292</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.4">
@@ -3085,9 +3015,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="1"/>
-      <c r="B170" s="3" t="s">
-        <v>336</v>
-      </c>
+      <c r="B170" s="3"/>
       <c r="C170" s="1"/>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.4">
